--- a/data/542/BOKNA/old/Quarterly_Nominal_NSA.xlsx
+++ b/data/542/BOKNA/old/Quarterly_Nominal_NSA.xlsx
@@ -665,7 +665,7 @@
     <col min="248" max="248" width="13.0" customWidth="true"/>
     <col min="249" max="249" width="12.0" customWidth="true"/>
     <col min="250" max="250" width="13.0" customWidth="true"/>
-    <col min="251" max="251" width="4.0" customWidth="true"/>
+    <col min="251" max="251" width="12.0" customWidth="true"/>
     <col min="252" max="252" width="4.0" customWidth="true"/>
   </cols>
   <sheetData>
@@ -2690,10 +2690,8 @@
       <c r="IP2" s="5" t="n">
         <v>10132.8</v>
       </c>
-      <c r="IQ2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ2" s="5" t="n">
+        <v>8940.9</v>
       </c>
       <c r="IR2" s="1" t="inlineStr">
         <is>
@@ -3460,10 +3458,8 @@
       <c r="IP3" s="5" t="n">
         <v>610.5</v>
       </c>
-      <c r="IQ3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ3" s="5" t="n">
+        <v>455.3</v>
       </c>
       <c r="IR3" s="1" t="inlineStr">
         <is>
@@ -4230,10 +4226,8 @@
       <c r="IP4" s="5" t="n">
         <v>129857.0</v>
       </c>
-      <c r="IQ4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ4" s="5" t="n">
+        <v>137489.5</v>
       </c>
       <c r="IR4" s="1" t="inlineStr">
         <is>
@@ -5000,10 +4994,8 @@
       <c r="IP5" s="5" t="n">
         <v>9849.4</v>
       </c>
-      <c r="IQ5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ5" s="5" t="n">
+        <v>8313.4</v>
       </c>
       <c r="IR5" s="1" t="inlineStr">
         <is>
@@ -5770,10 +5762,8 @@
       <c r="IP6" s="5" t="n">
         <v>27333.7</v>
       </c>
-      <c r="IQ6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ6" s="5" t="n">
+        <v>26391.8</v>
       </c>
       <c r="IR6" s="1" t="inlineStr">
         <is>
@@ -6540,10 +6530,8 @@
       <c r="IP7" s="5" t="n">
         <v>43619.4</v>
       </c>
-      <c r="IQ7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ7" s="5" t="n">
+        <v>45250.0</v>
       </c>
       <c r="IR7" s="1" t="inlineStr">
         <is>
@@ -7310,10 +7298,8 @@
       <c r="IP8" s="5" t="n">
         <v>15294.1</v>
       </c>
-      <c r="IQ8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ8" s="5" t="n">
+        <v>16166.8</v>
       </c>
       <c r="IR8" s="1" t="inlineStr">
         <is>
@@ -8080,10 +8066,8 @@
       <c r="IP9" s="5" t="n">
         <v>30257.2</v>
       </c>
-      <c r="IQ9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ9" s="5" t="n">
+        <v>31302.9</v>
       </c>
       <c r="IR9" s="1" t="inlineStr">
         <is>
@@ -8850,10 +8834,8 @@
       <c r="IP10" s="5" t="n">
         <v>37169.5</v>
       </c>
-      <c r="IQ10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ10" s="5" t="n">
+        <v>36966.9</v>
       </c>
       <c r="IR10" s="1" t="inlineStr">
         <is>
@@ -9620,10 +9602,8 @@
       <c r="IP11" s="5" t="n">
         <v>25114.1</v>
       </c>
-      <c r="IQ11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ11" s="5" t="n">
+        <v>25538.2</v>
       </c>
       <c r="IR11" s="1" t="inlineStr">
         <is>
@@ -10390,10 +10370,8 @@
       <c r="IP12" s="5" t="n">
         <v>24638.1</v>
       </c>
-      <c r="IQ12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ12" s="5" t="n">
+        <v>24547.9</v>
       </c>
       <c r="IR12" s="1" t="inlineStr">
         <is>
@@ -11160,10 +11138,8 @@
       <c r="IP13" s="5" t="n">
         <v>9285.6</v>
       </c>
-      <c r="IQ13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ13" s="5" t="n">
+        <v>11042.2</v>
       </c>
       <c r="IR13" s="1" t="inlineStr">
         <is>
@@ -11930,10 +11906,8 @@
       <c r="IP14" s="5" t="n">
         <v>468991.2</v>
       </c>
-      <c r="IQ14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ14" s="5" t="n">
+        <v>477724.0</v>
       </c>
       <c r="IR14" s="1" t="inlineStr">
         <is>
@@ -12700,10 +12674,8 @@
       <c r="IP15" s="5" t="n">
         <v>41308.7</v>
       </c>
-      <c r="IQ15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ15" s="5" t="n">
+        <v>47274.8</v>
       </c>
       <c r="IR15" s="1" t="inlineStr">
         <is>
@@ -13470,10 +13442,8 @@
       <c r="IP16" s="5" t="n">
         <v>510299.9</v>
       </c>
-      <c r="IQ16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ16" s="5" t="n">
+        <v>524998.8</v>
       </c>
       <c r="IR16" s="1" t="inlineStr">
         <is>
@@ -14240,10 +14210,8 @@
       <c r="IP17" s="5" t="n">
         <v>6991.0</v>
       </c>
-      <c r="IQ17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ17" s="5" t="n">
+        <v>5527.0</v>
       </c>
       <c r="IR17" s="1" t="inlineStr">
         <is>
@@ -15010,10 +14978,8 @@
       <c r="IP18" s="5" t="n">
         <v>517290.9</v>
       </c>
-      <c r="IQ18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ18" s="5" t="n">
+        <v>530525.9</v>
       </c>
       <c r="IR18" s="1" t="inlineStr">
         <is>
@@ -15780,10 +15746,8 @@
       <c r="IP19" s="5" t="n">
         <v>329366.7</v>
       </c>
-      <c r="IQ19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ19" s="5" t="n">
+        <v>331797.3</v>
       </c>
       <c r="IR19" s="1" t="inlineStr">
         <is>
@@ -16550,10 +16514,8 @@
       <c r="IP20" s="5" t="n">
         <v>233828.4</v>
       </c>
-      <c r="IQ20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ20" s="5" t="n">
+        <v>240443.6</v>
       </c>
       <c r="IR20" s="1" t="inlineStr">
         <is>
@@ -17400,10 +17362,8 @@
       <c r="IP21" s="3" t="n">
         <v>225233.0</v>
       </c>
-      <c r="IQ21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ21" s="3" t="n">
+        <v>231158.8</v>
       </c>
       <c r="IR21" s="1" t="inlineStr">
         <is>
@@ -18250,10 +18210,8 @@
       <c r="IP22" s="3" t="n">
         <v>8595.4</v>
       </c>
-      <c r="IQ22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ22" s="3" t="n">
+        <v>9284.7</v>
       </c>
       <c r="IR22" s="1" t="inlineStr">
         <is>
@@ -19020,10 +18978,8 @@
       <c r="IP23" s="5" t="n">
         <v>95538.4</v>
       </c>
-      <c r="IQ23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ23" s="5" t="n">
+        <v>91353.7</v>
       </c>
       <c r="IR23" s="1" t="inlineStr">
         <is>
@@ -19790,10 +19746,8 @@
       <c r="IP24" s="5" t="n">
         <v>163130.1</v>
       </c>
-      <c r="IQ24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ24" s="5" t="n">
+        <v>170561.1</v>
       </c>
       <c r="IR24" s="1" t="inlineStr">
         <is>
@@ -20560,10 +20514,8 @@
       <c r="IP25" s="5" t="n">
         <v>168318.9</v>
       </c>
-      <c r="IQ25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ25" s="5" t="n">
+        <v>160075.2</v>
       </c>
       <c r="IR25" s="1" t="inlineStr">
         <is>
@@ -21330,10 +21282,8 @@
       <c r="IP26" s="5" t="n">
         <v>83733.1</v>
       </c>
-      <c r="IQ26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ26" s="5" t="n">
+        <v>79522.6</v>
       </c>
       <c r="IR26" s="1" t="inlineStr">
         <is>
@@ -22100,10 +22050,8 @@
       <c r="IP27" s="5" t="n">
         <v>49367.2</v>
       </c>
-      <c r="IQ27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ27" s="5" t="n">
+        <v>44770.7</v>
       </c>
       <c r="IR27" s="1" t="inlineStr">
         <is>
@@ -22870,10 +22818,8 @@
       <c r="IP28" s="5" t="n">
         <v>35218.5</v>
       </c>
-      <c r="IQ28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ28" s="5" t="n">
+        <v>35781.8</v>
       </c>
       <c r="IR28" s="1" t="inlineStr">
         <is>
@@ -23640,10 +23586,8 @@
       <c r="IP29" s="5" t="n">
         <v>-5188.8</v>
       </c>
-      <c r="IQ29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ29" s="5" t="n">
+        <v>10486.0</v>
       </c>
       <c r="IR29" s="1" t="inlineStr">
         <is>
@@ -24410,10 +24354,8 @@
       <c r="IP30" s="5" t="n">
         <v>203748.5</v>
       </c>
-      <c r="IQ30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ30" s="5" t="n">
+        <v>220671.2</v>
       </c>
       <c r="IR30" s="1" t="inlineStr">
         <is>
@@ -25180,10 +25122,8 @@
       <c r="IP31" s="5" t="n">
         <v>185502.3</v>
       </c>
-      <c r="IQ31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ31" s="5" t="n">
+        <v>198990.6</v>
       </c>
       <c r="IR31" s="1" t="inlineStr">
         <is>
@@ -25950,10 +25890,8 @@
       <c r="IP32" s="5" t="n">
         <v>-443.0</v>
       </c>
-      <c r="IQ32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="IQ32" s="5" t="n">
+        <v>959.9</v>
       </c>
       <c r="IR32" s="1" t="inlineStr">
         <is>
